--- a/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>64006298.15913697</v>
+        <v>63422593.92863439</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7803.164536967874</v>
+        <v>8191.354534383863</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.400629815913697</v>
+        <v>5.342259392863439</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2635256465693587</v>
+        <v>0.2620679674293243</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.400629815913697</v>
+        <v>6.342259392863439</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>116.6673961255438</v>
+        <v>116.6937345554397</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.4768472910343943</v>
+        <v>0.4761311940133124</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2282270670892509</v>
+        <v>0.2290119871396097</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9509841253932786</v>
+        <v>0.9434567880345031</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1606749557862948</v>
+        <v>0.1611270744127327</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.350803656517684</v>
+        <v>1.340947290178448</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2316800512112043</v>
+        <v>0.231680575028132</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02298862315299599</v>
+        <v>0.02307548930780054</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.9844521148600378</v>
+        <v>0.9679938189557246</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.09019131674125647</v>
+        <v>0.08904792025417363</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1993040836063175</v>
+        <v>0.1977930003714473</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4100445362572025</v>
+        <v>0.411125571442755</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.195967348901172</v>
+        <v>1.183177616301749</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4582205810687253</v>
+        <v>0.454051308739844</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5910040372607457</v>
+        <v>0.5914506743290041</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2643277713589735</v>
+        <v>0.2646023008706679</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1922591498143296</v>
+        <v>0.1908176293231722</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4402776665291894</v>
+        <v>0.440770128276926</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9295159928426057</v>
+        <v>0.9237724723038695</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.456820197499932</v>
+        <v>1.445166491521021</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.167078050452008</v>
+        <v>1.15792351078513</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03465035486089865</v>
+        <v>0.03465793724669655</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2083134150178616</v>
+        <v>0.2095878871331019</v>
       </c>
     </row>
   </sheetData>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.104537095256782</v>
+        <v>1.104524488274717</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.01369298102027527</v>
+        <v>-0.01369770259801124</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.529198916537839</v>
+        <v>2.529153471634247</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.179642475657625</v>
+        <v>3.179533872600553</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4423076923076923</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.1198508294932484</v>
+        <v>-0.119851547449853</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1213046776825044</v>
+        <v>0.1213039173868177</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.6448452361554049</v>
+        <v>-0.6448443000122782</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3101710685058526</v>
+        <v>-0.3101712397908408</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2759598088507082</v>
+        <v>0.2759619706626775</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.4047190272382604</v>
+        <v>0.404721394079549</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.735269998739407</v>
+        <v>1.735275713164472</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.361618016263521</v>
+        <v>2.361623152058344</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.08047536623051513</v>
+        <v>-0.08047733339793621</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2188169834193821</v>
+        <v>0.2188145592948887</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.4424866424289494</v>
+        <v>-0.4424954871990678</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.0400174397271776</v>
+        <v>-0.04002691961645524</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.5882352941176471</v>
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3503401401650595</v>
+        <v>0.3401979824689692</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.08564517043611937</v>
+        <v>-0.09223909157458136</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.489038006009066</v>
+        <v>1.447703648224837</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.5620668975042806</v>
+        <v>0.4818010333331204</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.2019494461414287</v>
+        <v>0.2019007653054782</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.2946749140082732</v>
+        <v>-0.2947055157376475</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.8470062271021528</v>
+        <v>0.8468749570488665</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.350492672791468</v>
+        <v>-1.350723120884216</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.4038461538461539</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.09301336465846476</v>
+        <v>-0.09444094981600164</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.2215681336841528</v>
+        <v>-0.2223790423090947</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.3358190997244794</v>
+        <v>-0.3300584725363265</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.8436324898422176</v>
+        <v>-0.8337666987677164</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05094289032405126</v>
+        <v>0.05094366479348288</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2024216833783791</v>
+        <v>0.2024224240088917</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.8781728705555158</v>
+        <v>0.8782144319245553</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.227952677386931</v>
+        <v>1.228011904360431</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.02880852988406302</v>
+        <v>-0.02881535866601315</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1187339901690987</v>
+        <v>0.118727252764014</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1944761787808569</v>
+        <v>0.194478233963139</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1994427352599881</v>
+        <v>0.1994449955901594</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2231916824987596</v>
+        <v>0.2231937913761464</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04383724978578118</v>
+        <v>-0.04383758841260388</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.03335907946379169</v>
+        <v>0.0333593489648325</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.08517659580646364</v>
+        <v>0.08517754092996066</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05964483363621387</v>
+        <v>0.05964524799140447</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02718661456536242</v>
+        <v>-0.02718606435571413</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.08409273910736303</v>
+        <v>-0.08409324285804842</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.03832799520154095</v>
+        <v>0.03832824588287131</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.03782181097046966</v>
+        <v>-0.03782178675174486</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.0173148258520277</v>
+        <v>0.01731466170725526</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01336228786178173</v>
+        <v>-0.01336210571813656</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.001058784555551084</v>
+        <v>-0.001059062937199151</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02878887424353072</v>
+        <v>-0.02878906221307032</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.001214575012191577</v>
+        <v>-0.001214303061471966</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01362954221083057</v>
+        <v>0.01362934967161333</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02434429415906825</v>
+        <v>-0.02434445581622102</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.0001599433278818285</v>
+        <v>-0.000159944416479485</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03071771868445428</v>
+        <v>0.03071792778715854</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009420234420275397</v>
+        <v>0.009420571816656231</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01518257225100217</v>
+        <v>0.01518266744743224</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002902592757293876</v>
+        <v>-0.002902879221158172</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.06362495196066398</v>
+        <v>0.06362536320934753</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03733425432900495</v>
+        <v>0.03733448120881411</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03272607001326655</v>
+        <v>0.0327265058261732</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005072010063186028</v>
+        <v>0.005072037635988735</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05544824173875629</v>
+        <v>0.05544830648239341</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01485614211772901</v>
+        <v>-0.0148562215608169</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.01762278934843331</v>
+        <v>0.01762311117946558</v>
       </c>
     </row>
     <row r="6">
@@ -1588,28 +1588,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03610075406414004</v>
+        <v>0.03610071635126078</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05925974230455244</v>
+        <v>-0.05926004738984747</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01303925686451302</v>
+        <v>0.01303932822285758</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02445736948844268</v>
+        <v>-0.02445750161051174</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07539986243823038</v>
+        <v>0.07540027997043852</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04694368397112925</v>
+        <v>-0.04694392569884742</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04510559668152703</v>
+        <v>-0.04510696599901975</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.03384152795989881</v>
+        <v>-0.03384105206154298</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01803014394101543</v>
+        <v>-0.01803050234608117</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.02808426023551736</v>
+        <v>0.02808370317726183</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.03093275388451067</v>
+        <v>-0.03093297818470553</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2945186277463738</v>
+        <v>0.2945205821127002</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04890004003777948</v>
+        <v>0.04890033211517264</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.006042733381656396</v>
+        <v>-0.001362635319808625</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01873560972759603</v>
+        <v>-0.01887483456560302</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01169425134518209</v>
+        <v>-0.01169440438048963</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02914184238530038</v>
+        <v>-0.02914355556727477</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02299851644995154</v>
+        <v>0.02299745126252772</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02170784754081545</v>
+        <v>0.02170785164811573</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009472220392585218</v>
+        <v>0.009472111317311072</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03837093230714328</v>
+        <v>-0.03837850901275841</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06780904681282784</v>
+        <v>0.06780929117108303</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04446566542234609</v>
+        <v>0.04446865970003189</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.0811763984088103</v>
+        <v>-0.08117687281568164</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07841935503725905</v>
+        <v>-0.0784170825845939</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01612684843093981</v>
+        <v>0.01612657864406453</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03207681481738178</v>
+        <v>0.03207240654428389</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1283739110330768</v>
+        <v>0.1283544285583456</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1850256210634371</v>
+        <v>0.185006232238379</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02962281105106224</v>
+        <v>-0.02961421149422527</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07124306093880395</v>
+        <v>-0.07124498019653158</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01566331605260107</v>
+        <v>-0.01566507718700805</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.0507472525577477</v>
+        <v>0.05074854110423188</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.03968370460310111</v>
+        <v>0.03966978662434939</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02404143352391785</v>
+        <v>0.02404326043231619</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.09585820225915109</v>
+        <v>-0.0958221388615158</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03592565690047056</v>
+        <v>-0.03595789899479662</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.008449465870965067</v>
+        <v>0.008478442716759682</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02015794484751932</v>
+        <v>0.02939681626310575</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01255635415382805</v>
+        <v>-0.02294910583987719</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.03962286988541397</v>
+        <v>0.0395943837960353</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01747102853403848</v>
+        <v>0.01747812384816227</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07748522735335683</v>
+        <v>-0.07750002859507865</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001896083004879201</v>
+        <v>-0.001897209301930269</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-2.697937106721504e-05</v>
+        <v>-3.454481253462038e-05</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02699224001765832</v>
+        <v>0.0269903009110275</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.0469101297474751</v>
+        <v>-0.04690792091168228</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.0001600435787121324</v>
+        <v>-0.0001599515416372821</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.0949549773077365</v>
+        <v>0.0949537300928458</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007206482498205213</v>
+        <v>0.007205945035671624</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1570397264477732</v>
+        <v>-0.1570453339785928</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02520667956533118</v>
+        <v>-0.02521246688266665</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.01473393430551884</v>
+        <v>-0.01473217703883201</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.02080502639498638</v>
+        <v>-0.02080308121623076</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.01448442557718599</v>
+        <v>-0.0144825707439864</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.157392541631294</v>
+        <v>0.1573922874280267</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2672543858806571</v>
+        <v>0.2672547953960409</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>-0.06960194198380509</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.09365620323250146</v>
+        <v>-0.09365533056420272</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01844871280585725</v>
+        <v>-0.01844823149270758</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04428442571744529</v>
+        <v>-0.04428385879199603</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2059723009108154</v>
+        <v>0.2059716892707431</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0.04481461253681185</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1367190894787808</v>
+        <v>-0.1367188557101752</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.00319001991904222</v>
+        <v>0.003190064601400699</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01571114523779238</v>
+        <v>-0.01571126498608411</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.03475336003899154</v>
+        <v>0.03475356001259788</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03447974167390544</v>
+        <v>-0.03448002064300426</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01094426469006438</v>
+        <v>-0.01094445194819571</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.007147094916117203</v>
+        <v>-0.007146824934647689</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.001990974245928978</v>
+        <v>0.001990791735213548</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08222671694610884</v>
+        <v>0.08222653371038358</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03668880059178514</v>
+        <v>0.03668879945361803</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008550265833992654</v>
+        <v>0.008550467005371765</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01920717363042979</v>
+        <v>0.01920752025884465</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04507772537873245</v>
+        <v>0.04507782541963334</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04436563876336819</v>
+        <v>0.0443653386721008</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03056327541636383</v>
+        <v>0.03056367121034742</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08184632007274972</v>
+        <v>0.08184653603215764</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03067678188038347</v>
+        <v>-0.03067637190007155</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.003950163967415654</v>
+        <v>-0.003950131638410181</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0524589890592102</v>
+        <v>0.05245904758865327</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03928699447662654</v>
+        <v>0.03928691949146246</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.02576831509018218</v>
+        <v>0.02576863874321478</v>
       </c>
     </row>
     <row r="6">
@@ -2044,28 +2044,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04345274930722809</v>
+        <v>0.0434527019488602</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0748668805352436</v>
+        <v>-0.07486717703913082</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.06889416545270644</v>
+        <v>-0.06889406801647857</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02308488408868259</v>
+        <v>0.02308475510420238</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1115070946833912</v>
+        <v>0.1115075385009106</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02878880344888013</v>
+        <v>0.02878857824025705</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02132372884253786</v>
+        <v>-0.02132510771543039</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04369268706830098</v>
+        <v>0.043693189469725</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0.01408128749632898</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.06100973890447148</v>
+        <v>-0.06101005018632344</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09022568226730399</v>
+        <v>0.09022511214906093</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01533596529197656</v>
+        <v>-0.01533619428729183</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03747844020220148</v>
+        <v>0.03748007930090114</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05029745811384767</v>
+        <v>-0.05029713405259539</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.04690060625201253</v>
+        <v>0.03948864208440428</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06244892989031792</v>
+        <v>0.06231716646743313</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.03394556582923003</v>
+        <v>-0.03394571952360748</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.06709833444214375</v>
+        <v>-0.06709991843690266</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.005911831353052066</v>
+        <v>-0.005912868694033624</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01097525447805481</v>
+        <v>0.01097520454067058</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01859463772133763</v>
+        <v>-0.01859474295509189</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.035148744545212</v>
+        <v>-0.0351559824436557</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.01205037185553237</v>
+        <v>-0.01205007059325902</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02677482465819092</v>
+        <v>-0.02677190521952055</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1469669389592154</v>
+        <v>-0.1469672783359508</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01493151559878481</v>
+        <v>0.01493385780812906</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08517391098904159</v>
+        <v>-0.08517422976581246</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02252750574055118</v>
+        <v>0.0225227638993184</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03515534950002308</v>
+        <v>-0.03517234925959789</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03064095487063279</v>
+        <v>0.03062270590455096</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.009368584743071118</v>
+        <v>-0.009360027193600295</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01891304952529016</v>
+        <v>-0.01891499740921698</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04943273277832794</v>
+        <v>-0.04943451596587967</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05825615734203837</v>
+        <v>0.05825731563588765</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07954659414905529</v>
+        <v>-0.07955934893818228</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03156215067019652</v>
+        <v>-0.0315604723989803</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.0291188656853828</v>
+        <v>-0.0290800423874108</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.008367475787031786</v>
+        <v>0.008335475655391722</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1035703247357321</v>
+        <v>-0.1035439605357984</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04921422069847059</v>
+        <v>-0.04017791230298984</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.06279337257414885</v>
+        <v>-0.07257581308385219</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.04381383732710464</v>
+        <v>0.04378510671107949</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08382850045869117</v>
+        <v>0.08383518966804848</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08926203976350999</v>
+        <v>-0.08927662144982718</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03495583101996935</v>
+        <v>-0.03495684173256697</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.0423707866814127</v>
+        <v>-0.04237812995016377</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.07946377818724781</v>
+        <v>0.07946160247649203</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.0836385205490684</v>
+        <v>0.08364095384760839</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2220,13 +2220,13 @@
         <v>0.1308985363887376</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.04060002289585829</v>
+        <v>-0.04059993247669447</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.0646427294140266</v>
+        <v>-0.06464384764609921</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01740291343249889</v>
+        <v>0.0174023759699653</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>63422593.92863439</v>
+        <v>63422951.81110947</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>8191.354534383863</v>
+        <v>8549.23700946942</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.342259392863439</v>
+        <v>5.342295181110947</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2620679674293243</v>
+        <v>0.2620688647520155</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.342259392863439</v>
+        <v>6.342295181110947</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>116.6937345554397</v>
+        <v>116.6958276517722</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.4761311940133124</v>
+        <v>0.3783371976311861</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2290119871396097</v>
+        <v>0.2290160762715983</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9434567880345031</v>
+        <v>0.943447061794546</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1611270744127327</v>
+        <v>0.1611293772800286</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.340947290178448</v>
+        <v>1.340938244220071</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.231680575028132</v>
+        <v>0.2316823715795179</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02307548930780054</v>
+        <v>0.02307590759201929</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.9679938189557246</v>
+        <v>0.968011751550803</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08904792025417363</v>
+        <v>0.08904917061459416</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1977930003714473</v>
+        <v>0.1977936742876501</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.411125571442755</v>
+        <v>0.4111300937602889</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.183177616301749</v>
+        <v>1.18315521215723</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.454051308739844</v>
+        <v>0.4540542961486568</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5914506743290041</v>
+        <v>0.5914549555405634</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2646023008706679</v>
+        <v>0.2646041508229348</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1908176293231722</v>
+        <v>0.1908184015450558</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.440770128276926</v>
+        <v>0.4407723715238324</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9237724723038695</v>
+        <v>0.9237617112274074</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.445166491521021</v>
+        <v>1.445168761394323</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.15792351078513</v>
+        <v>1.1578970794012</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03465793724669655</v>
+        <v>0.03465837362030417</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2095878871331019</v>
+        <v>0.2095995585019905</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.9037070000000014</v>
+        <v>0.9037669999999998</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.7361829309254085</v>
+        <v>0.7362378392252324</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.360866075041097</v>
+        <v>3.360872885684619</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.711812593194108</v>
+        <v>5.711919635221625</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.6052631578947368</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.104524488274717</v>
+        <v>1.104497556686297</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.01369770259801124</v>
+        <v>-0.01371054542823455</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.529153471634247</v>
+        <v>2.529103193819449</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.179533872600553</v>
+        <v>3.179394975289946</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4423076923076923</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.119851547449853</v>
+        <v>-0.1198503022483871</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1213039173868177</v>
+        <v>0.121305566443253</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.6448443000122782</v>
+        <v>-0.6448375505647599</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3101712397908408</v>
+        <v>-0.3101626196347356</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2759619706626775</v>
+        <v>0.2759501754815812</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.404721394079549</v>
+        <v>0.404708586227513</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.735275713164472</v>
+        <v>1.735219249924616</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.361623152058344</v>
+        <v>2.361555694805246</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.08047733339793621</v>
+        <v>-0.08047956850924734</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2188145592948887</v>
+        <v>0.2188131265219364</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.4424954871990678</v>
+        <v>-0.4424803177135904</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.04002691961645524</v>
+        <v>-0.04000728111666108</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.5882352941176471</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3401979824689692</v>
+        <v>0.3402214503766974</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.09223909157458136</v>
+        <v>-0.09222181213630309</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.447703648224837</v>
+        <v>1.447730480768292</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.4818010333331204</v>
+        <v>0.4818632600685998</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.2019007653054782</v>
+        <v>0.2018984074975415</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.2947055157376475</v>
+        <v>-0.29470664865673</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.8468749570488665</v>
+        <v>0.8468640560927785</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.350723120884216</v>
+        <v>-1.350746858978936</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.4038461538461539</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.09444094981600164</v>
+        <v>-0.09445818920838037</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.2223790423090947</v>
+        <v>-0.2223936280737484</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.3300584725363265</v>
+        <v>-0.3301401486741506</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.8337666987677164</v>
+        <v>-0.8338588014762628</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05094366479348288</v>
+        <v>0.05094440577094433</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2024224240088917</v>
+        <v>0.202423207723403</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.8782144319245553</v>
+        <v>0.8782359440944111</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.228011904360431</v>
+        <v>1.228039773106829</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.04519799999999985</v>
+        <v>-0.04519900000000021</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01017174241361007</v>
+        <v>0.01017175306686946</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02473370008107723</v>
+        <v>0.02473372572479593</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05950504365774001</v>
+        <v>0.05950510386303076</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.005179610440582794</v>
+        <v>0.005179615386819103</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.06280501649713544</v>
+        <v>0.06280602618643716</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0252816621912979</v>
+        <v>0.02528076830938342</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2217116143954789</v>
+        <v>0.2217196542626929</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3585272839116762</v>
+        <v>0.3585623452341027</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.02881535866601315</v>
+        <v>-0.02881865270277295</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.118727252764014</v>
+        <v>0.1187239135855154</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.194478233963139</v>
+        <v>0.1944733447688374</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1994449955901594</v>
+        <v>0.199440797874902</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2231937913761464</v>
+        <v>0.2231898749212902</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04383758841260388</v>
+        <v>-0.04383695953838218</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.0333593489648325</v>
+        <v>0.03335913699029702</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.08517754092996066</v>
+        <v>0.08517879335045242</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05964524799140447</v>
+        <v>0.05964686945531983</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02718606435571413</v>
+        <v>-0.02718486064599357</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.08409324285804842</v>
+        <v>-0.08409166865719542</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.03832824588287131</v>
+        <v>0.03832828005086175</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.03782178675174486</v>
+        <v>-0.0378215373955767</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01731466170725526</v>
+        <v>0.01731430276626278</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01336210571813656</v>
+        <v>-0.0133618334299489</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.001059062937199151</v>
+        <v>-0.001059312821761749</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02878906221307032</v>
+        <v>-0.02878929095506166</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.001214303061471966</v>
+        <v>-0.001214558681867706</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01362934967161333</v>
+        <v>0.01362991963675997</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02434445581622102</v>
+        <v>-0.02434478741991863</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.000159944416479485</v>
+        <v>-0.0001599411960878649</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03071792778715854</v>
+        <v>0.03071730919990512</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009420571816656231</v>
+        <v>0.009416260116515529</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01518266744743224</v>
+        <v>0.01518243566690636</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002902879221158172</v>
+        <v>-0.002902835568194484</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.06362536320934753</v>
+        <v>0.063624403637357</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03733448120881411</v>
+        <v>0.03733217939722699</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.0327265058261732</v>
+        <v>0.03272611440092499</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005072037635988735</v>
+        <v>0.005071978894290119</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05544830648239341</v>
+        <v>0.05544790271360411</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.0148562215608169</v>
+        <v>-0.01485627886499064</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.01762311117946558</v>
+        <v>0.01762291587460174</v>
       </c>
     </row>
     <row r="6">
@@ -1588,28 +1588,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03610071635126078</v>
+        <v>0.03610054545317176</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05926004738984747</v>
+        <v>-0.05926048434427156</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01303932822285758</v>
+        <v>0.01304968342603541</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02445750161051174</v>
+        <v>-0.02446487861083324</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07540027997043852</v>
+        <v>0.07539930573581355</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04694392569884742</v>
+        <v>-0.04694336167137847</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04510696599901975</v>
+        <v>-0.04510819830822299</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.03384105206154298</v>
+        <v>-0.03384137637235618</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01803050234608117</v>
+        <v>-0.01803274448312842</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.02808370317726183</v>
+        <v>0.02808345892593755</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.03093297818470553</v>
+        <v>-0.03093319991201904</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2945205821127002</v>
+        <v>0.294535866815355</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04890033211517264</v>
+        <v>0.04889838889701359</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.001362635319808625</v>
+        <v>-0.00136261053989728</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01887483456560302</v>
+        <v>-0.0188743069126267</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01169440438048963</v>
+        <v>-0.01169493505074026</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02914355556727477</v>
+        <v>-0.02913961028182777</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02299745126252772</v>
+        <v>0.02299615743984607</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02170785164811573</v>
+        <v>0.02171255253660687</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009472111317311072</v>
+        <v>0.009473177308342962</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03837850901275841</v>
+        <v>-0.03837730039820475</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06780929117108303</v>
+        <v>0.06780720511975158</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04446865970003189</v>
+        <v>0.04446768519590605</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08117687281568164</v>
+        <v>-0.08117673974885276</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.0784170825845939</v>
+        <v>-0.07841679921583056</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01612657864406453</v>
+        <v>0.01612616758873409</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03207240654428389</v>
+        <v>0.03207180269310261</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1283544285583456</v>
+        <v>0.1283512839114451</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.185006232238379</v>
+        <v>0.1850020429028558</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02961421149422527</v>
+        <v>-0.02961352775730175</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07124498019653158</v>
+        <v>-0.07124917971025391</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01566507718700805</v>
+        <v>-0.01566759526615957</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05074854110423188</v>
+        <v>0.05074794214482514</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.03966978662434939</v>
+        <v>0.03968306960949119</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02404326043231619</v>
+        <v>0.02404268319399461</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.0958221388615158</v>
+        <v>-0.09582487433301801</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03595789899479662</v>
+        <v>-0.03596445738029552</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.008478442716759682</v>
+        <v>0.008478495374700579</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02939681626310575</v>
+        <v>0.02939524761328061</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02294910583987719</v>
+        <v>-0.02295287539638635</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.0395943837960353</v>
+        <v>0.03959405568757246</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01747812384816227</v>
+        <v>0.01747654972376833</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07750002859507865</v>
+        <v>-0.07749968741470503</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001897209301930269</v>
+        <v>-0.001896856717510276</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-3.454481253462038e-05</v>
+        <v>-3.505507645995554e-05</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.0269903009110275</v>
+        <v>0.02698859019366151</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04690792091168228</v>
+        <v>-0.04690669350189636</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.0001599515416372821</v>
+        <v>-0.0001599505405111001</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.0949537300928458</v>
+        <v>0.09495296180152635</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007205945035671624</v>
+        <v>0.007206063790879291</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.01842405690080051</v>
+        <v>0.01842302582723909</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02103306084202572</v>
+        <v>-0.02103303812915192</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03903596862172609</v>
+        <v>-0.03903597901584033</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1051004271789897</v>
+        <v>0.1051005186003746</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05305636865126084</v>
+        <v>-0.05305635315682089</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.01783818672096471</v>
+        <v>-0.01783728006402474</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.04373621396806504</v>
+        <v>0.04373530700889217</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1736372815310236</v>
+        <v>0.1736451047486089</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4393224745718565</v>
+        <v>0.4393596187610667</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1570453339785928</v>
+        <v>-0.1570484809948258</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02521246688266665</v>
+        <v>-0.02521553171746027</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.01473217703883201</v>
+        <v>-0.01473645638524501</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.02080308121623076</v>
+        <v>-0.0208067362330786</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.0144825707439864</v>
+        <v>-0.01448602490666651</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1573922874280267</v>
+        <v>0.1573927578098213</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2672547953960409</v>
+        <v>0.2672544097838581</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>-0.06960194198380509</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.09365533056420272</v>
+        <v>-0.09365381410225404</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01844823149270758</v>
+        <v>-0.01844589474933678</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04428385879199603</v>
+        <v>-0.04428263436760183</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2059716892707431</v>
+        <v>0.2059736006216251</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0.04481461253681185</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1367188557101752</v>
+        <v>-0.1367187974345919</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.003190064601400699</v>
+        <v>0.00319031772590761</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01571126498608411</v>
+        <v>-0.01571172317230574</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.03475356001259788</v>
+        <v>0.034753783185413</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03448002064300426</v>
+        <v>-0.03448025951692668</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01094445194819571</v>
+        <v>-0.01094468200686183</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.007146824934647689</v>
+        <v>-0.00714708096038652</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.001990791735213548</v>
+        <v>0.001991342098054405</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08222653371038358</v>
+        <v>0.0822265384303229</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03668879945361803</v>
+        <v>0.03668880282065068</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008550467005371765</v>
+        <v>0.008549856544281864</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01920752025884465</v>
+        <v>0.01920326083335477</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04507782541963334</v>
+        <v>0.04507756959205866</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.0443653386721008</v>
+        <v>0.0443653844641656</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03056367121034742</v>
+        <v>0.03056273252904584</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08184653603215764</v>
+        <v>0.08184425312448762</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03067637190007155</v>
+        <v>-0.03067675236856549</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.003950131638410181</v>
+        <v>-0.003950205800136053</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05245904758865327</v>
+        <v>0.05245864705801195</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03928691949146246</v>
+        <v>0.03928684245551106</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.02576863874321478</v>
+        <v>0.02576844085693675</v>
       </c>
     </row>
     <row r="6">
@@ -2044,28 +2044,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0434527019488602</v>
+        <v>0.04345253582373698</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07486717703913082</v>
+        <v>-0.07486758233001567</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.06889406801647857</v>
+        <v>-0.06888372990124181</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02308475510420238</v>
+        <v>0.02307722640475873</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1115075385009106</v>
+        <v>0.1115065135515318</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02878857824025705</v>
+        <v>0.02878913902575575</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02132510771543039</v>
+        <v>-0.02132634247483933</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.043693189469725</v>
+        <v>0.04369284823056874</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0.01408128749632898</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.06101005018632344</v>
+        <v>-0.06101202974392628</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09022511214906093</v>
+        <v>0.09022484116648233</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01533619428729183</v>
+        <v>-0.01533640104992007</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03748007930090114</v>
+        <v>0.03749289115756893</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05029713405259539</v>
+        <v>-0.05029861143010428</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03948864208440428</v>
+        <v>0.03948868182210918</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06231716646743313</v>
+        <v>0.06231769208254812</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.03394571952360748</v>
+        <v>-0.03394623483520987</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.06709991843690266</v>
+        <v>-0.06709589302648888</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.005912868694033624</v>
+        <v>-0.005914080239951547</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01097520454067058</v>
+        <v>0.01098032244646885</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01859474295509189</v>
+        <v>-0.01859366018351916</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.0351559824436557</v>
+        <v>-0.03515482255718005</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.01205007059325902</v>
+        <v>-0.01205205817117616</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02677190521952055</v>
+        <v>-0.0267729046586066</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1469672783359508</v>
+        <v>-0.1469674148613628</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01493385780812906</v>
+        <v>0.01493421424753616</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08517422976581246</v>
+        <v>-0.08517461162432904</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.0225227638993184</v>
+        <v>0.02252212213655858</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03517234925959789</v>
+        <v>-0.03517510040018101</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03062270590455096</v>
+        <v>0.0306187962476987</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.009360027193600295</v>
+        <v>-0.009359355425964</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01891499740921698</v>
+        <v>-0.01891913156174896</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04943451596587967</v>
+        <v>-0.049436953899895</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05825731563588765</v>
+        <v>0.05825666305309452</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07955934893818228</v>
+        <v>-0.07954679718818491</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.0315604723989803</v>
+        <v>-0.03156115520688685</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.0290800423874108</v>
+        <v>-0.02908303237500931</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.008335475655391722</v>
+        <v>0.008329056081903818</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1035439605357984</v>
+        <v>-0.1035439422216831</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04017791230298984</v>
+        <v>-0.0401792605380934</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07257581308385219</v>
+        <v>-0.07257937901139344</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.04378510671107949</v>
+        <v>0.0437847286366464</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08383518966804848</v>
+        <v>0.0838335288615919</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08927662144982718</v>
+        <v>-0.08927629008222493</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03495684173256697</v>
+        <v>-0.03495649521276889</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.04237812995016377</v>
+        <v>-0.04237862512051849</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.07946160247649203</v>
+        <v>0.07945978034455448</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.08364095384760839</v>
+        <v>0.08364231794071419</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2220,13 +2220,13 @@
         <v>0.1308985363887376</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.04059993247669447</v>
+        <v>-0.04059993149316699</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.06464384764609921</v>
+        <v>-0.06464452556788658</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.0174023759699653</v>
+        <v>0.01740249472517297</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>63422951.81110947</v>
+        <v>69275208.60878387</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>8549.23700946942</v>
+        <v>7359.605883870274</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.342295181110947</v>
+        <v>5.927520860878387</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2620688647520155</v>
+        <v>0.2761825681076635</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.342295181110947</v>
+        <v>6.927520860878387</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>116.6958276517722</v>
+        <v>132.5283336252121</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3783371976311861</v>
+        <v>0.4234118907861719</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2290160762715983</v>
+        <v>0.232873654013217</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.943447061794546</v>
+        <v>0.9794222022626694</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1611293772800286</v>
+        <v>0.1636922851084789</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.340938244220071</v>
+        <v>1.393355996658182</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2316823715795179</v>
+        <v>0.2178050998088338</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02307590759201929</v>
+        <v>0.02343572250189203</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.968011751550803</v>
+        <v>1.174402049485087</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08904917061459416</v>
+        <v>0.102820475778709</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1977936742876501</v>
+        <v>0.2111939341669929</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4111300937602889</v>
+        <v>0.4255720106798229</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.18315521215723</v>
+        <v>1.240522827588527</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4540542961486568</v>
+        <v>0.5033413103061697</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5914549555405634</v>
+        <v>0.5752545670093641</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2646041508229348</v>
+        <v>0.2625688207072752</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1908184015450558</v>
+        <v>0.2038540411549403</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4407723715238324</v>
+        <v>0.4554737246943359</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9237617112274074</v>
+        <v>0.9606978695064294</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.445168761394323</v>
+        <v>1.506285351860959</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.1578970794012</v>
+        <v>1.217863871985986</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03465837362030417</v>
+        <v>0.03436096729415219</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2095995585019905</v>
+        <v>0.2064661979200169</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.9037669999999998</v>
+        <v>0.9554459999999979</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.7362378392252324</v>
+        <v>0.7833732082589765</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.360872885684619</v>
+        <v>3.477933820119619</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.711919635221625</v>
+        <v>6.044945150177945</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.6052631578947368</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.104497556686297</v>
+        <v>1.156042150997778</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.01371054542823455</v>
+        <v>0.0137412672060071</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.529103193819449</v>
+        <v>2.580546725723143</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.179394975289946</v>
+        <v>3.360584824538321</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4423076923076923</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.1198503022483871</v>
+        <v>-0.07852730439864536</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.121305566443253</v>
+        <v>0.1757124455867206</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.6448375505647599</v>
+        <v>-0.3608811647581712</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3101626196347356</v>
+        <v>-0.01044731754874058</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2759501754815812</v>
+        <v>0.2555867500001928</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.404708586227513</v>
+        <v>0.3825494957883834</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.735219249924616</v>
+        <v>1.605037259941543</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.361555694805246</v>
+        <v>2.18481302088263</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.08047956850924734</v>
+        <v>-0.07101160275553356</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2188131265219364</v>
+        <v>0.231630843534265</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.4424803177135904</v>
+        <v>-0.375356396202483</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.04000728111666108</v>
+        <v>0.03183147327606684</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3402214503766974</v>
+        <v>0.3650715678187341</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.09222181213630309</v>
+        <v>-0.07465448084793611</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.447730480768292</v>
+        <v>1.514539092802319</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.4818632600685998</v>
+        <v>0.6042028596796424</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.2018984074975415</v>
+        <v>0.1484274543593994</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.29470664865673</v>
+        <v>-0.3254053518943449</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.8468640560927785</v>
+        <v>0.6678824442099208</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.350746858978936</v>
+        <v>-1.729473658497802</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.09445818920838037</v>
+        <v>-0.05627889842548772</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.2223936280737484</v>
+        <v>-0.1879518526650552</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.3301401486741506</v>
+        <v>-0.1354596536649402</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.8338588014762628</v>
+        <v>-0.6368453856414227</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05094440577094433</v>
+        <v>0.03331477275422322</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.202423207723403</v>
+        <v>0.1851668263673923</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.8782359440944111</v>
+        <v>0.5370925200657047</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.228039773106829</v>
+        <v>0.9152616411622262</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1436,28 +1436,28 @@
         <v>-0.04519900000000021</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01017175306686946</v>
+        <v>0.01787702358920873</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02473372572479593</v>
+        <v>0.02471729758095154</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05950510386303076</v>
+        <v>0.06830559940234537</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.005179615386819103</v>
+        <v>0.005229731266630511</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.06280602618643716</v>
+        <v>0.06254809575859599</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02528076830938342</v>
+        <v>0.02551974480255237</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2217196542626929</v>
+        <v>0.2361729057170436</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3585623452341027</v>
+        <v>0.357378323690394</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.02881865270277295</v>
+        <v>-0.01568491280250217</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1187239135855154</v>
+        <v>0.133934096193062</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1944733447688374</v>
+        <v>0.1842494712650418</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.199440797874902</v>
+        <v>0.2075157513139803</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2231898749212902</v>
+        <v>0.2079509860714526</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04383695953838218</v>
+        <v>-0.0417627958076463</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.03335913699029702</v>
+        <v>0.01979349242606276</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0</v>
+        <v>-0.004997069887591854</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.08517879335045242</v>
+        <v>0.1197899801650353</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05964686945531983</v>
+        <v>0.05858944585076897</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02718486064599357</v>
+        <v>-0.0297666183163644</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.08409166865719542</v>
+        <v>-0.08406308882492131</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.03832828005086175</v>
+        <v>0.06015674283174999</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.0378215373955767</v>
+        <v>-0.03778218106193698</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0</v>
+        <v>0.01412481655711506</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01731430276626278</v>
+        <v>0.01522349368366216</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.0133618334299489</v>
+        <v>-0.01337921450681401</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.001059312821761749</v>
+        <v>-0.0005320595226910863</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02878929095506166</v>
+        <v>-0.0287987681853562</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.001214558681867706</v>
+        <v>-0.01131708326811054</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01362991963675997</v>
+        <v>0.03672206263731503</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02434478741991863</v>
+        <v>-0.02417342553357116</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.0001599411960878649</v>
+        <v>0.001221122222648363</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03071730919990512</v>
+        <v>0.03067027106238407</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009416260116515529</v>
+        <v>0.009567739330051506</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01518243566690636</v>
+        <v>0.01507875523490676</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002902835568194484</v>
+        <v>-0.005441805636724584</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.063624403637357</v>
+        <v>0.07386646474247982</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03733217939722699</v>
+        <v>0.03220649239421092</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03272611440092499</v>
+        <v>0.03295954061228601</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005071978894290119</v>
+        <v>0.005088450461457672</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05544790271360411</v>
+        <v>0.0557391322100691</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01485627886499064</v>
+        <v>-0.01482572819807237</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.01762291587460174</v>
+        <v>-0.002627412644663485</v>
       </c>
     </row>
     <row r="6">
@@ -1588,28 +1588,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03610054545317176</v>
+        <v>0.03609099256584747</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05926048434427156</v>
+        <v>-0.05926563052477252</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01304968342603541</v>
+        <v>0.0253591608306889</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02446487861083324</v>
+        <v>-0.02441977245463778</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07539930573581355</v>
+        <v>0.07586284766538154</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04694336167137847</v>
+        <v>-0.04697427286178646</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04510819830822299</v>
+        <v>-0.04150249098614511</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.03384137637235618</v>
+        <v>-0.0339088575096278</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01803274448312842</v>
+        <v>-0.02789917417966115</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.02808345892593755</v>
+        <v>0.0323440021268786</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.03093319991201904</v>
+        <v>-0.02987549834425918</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.294535866815355</v>
+        <v>0.2945114163041314</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04889838889701359</v>
+        <v>0.0491441149047751</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.00136261053989728</v>
+        <v>-0.02339651336025994</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.0188743069126267</v>
+        <v>-0.01833705608271641</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01169493505074026</v>
+        <v>0.009498949666450152</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02913961028182777</v>
+        <v>-0.03283631580195201</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02299615743984607</v>
+        <v>0.02143336440888755</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02171255253660687</v>
+        <v>0.02189229003114956</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009473177308342962</v>
+        <v>0.009347744210417508</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03837730039820475</v>
+        <v>-0.02828064846554923</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06780720511975158</v>
+        <v>0.08119384139537589</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04446768519590605</v>
+        <v>0.0446181029869881</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08117673974885276</v>
+        <v>-0.08589811245421153</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07841679921583056</v>
+        <v>-0.07845301603871235</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01612616758873409</v>
+        <v>0.006788078040668388</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03207180269310261</v>
+        <v>0.03207478691469778</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1283512839114451</v>
+        <v>0.1283950752612617</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1850020429028558</v>
+        <v>0.185002864165839</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02961352775730175</v>
+        <v>-0.04842882336747911</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07124917971025391</v>
+        <v>-0.07125095250825797</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01566759526615957</v>
+        <v>-0.02813849769823817</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05074794214482514</v>
+        <v>0.05079440486753906</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.03968306960949119</v>
+        <v>0.04074018783487454</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02404268319399461</v>
+        <v>0.02405187967247069</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.09582487433301801</v>
+        <v>-0.08893335263272439</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03596445738029552</v>
+        <v>-0.03565582582023019</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.008478495374700579</v>
+        <v>0.003148535494480242</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02939524761328061</v>
+        <v>0.02946675178233726</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02295287539638635</v>
+        <v>-0.02293367964539028</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.03959405568757246</v>
+        <v>0.05625236656452492</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01747654972376833</v>
+        <v>0.03494330451265037</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07749968741470503</v>
+        <v>-0.07434255692166258</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001896856717510276</v>
+        <v>-0.001142367316066539</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-3.505507645995554e-05</v>
+        <v>0.00188970811695377</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02698859019366151</v>
+        <v>0.02654933518711711</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04690669350189636</v>
+        <v>-0.04643331847194276</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0</v>
+        <v>0.01331951378378049</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0</v>
+        <v>-0.04969245260824828</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0</v>
+        <v>0.004584058425140647</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.0001599505405111001</v>
+        <v>0.01600397908458073</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.09495296180152635</v>
+        <v>0.09478871887767415</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007206063790879291</v>
+        <v>0.007068428693084217</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1892,28 +1892,28 @@
         <v>0.01842302582723909</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02103303812915192</v>
+        <v>-0.01354014655508384</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03903597901584033</v>
+        <v>-0.03905146802687398</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1051005186003746</v>
+        <v>0.114228123583185</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05305635315682089</v>
+        <v>-0.05301254954620394</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.01783728006402474</v>
+        <v>-0.01807968525303372</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.04373530700889217</v>
+        <v>0.04397591613464469</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1736451047486089</v>
+        <v>0.1875533542419348</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4393596187610667</v>
+        <v>0.4381238533848337</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1570484809948258</v>
+        <v>-0.1449884808776242</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02521553171746027</v>
+        <v>-0.01168937799534742</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.01473645638524501</v>
+        <v>-0.02325502154919745</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.0208067362330786</v>
+        <v>-0.01416353362077638</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.01448602490666651</v>
+        <v>-0.02687217179248036</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1573927578098213</v>
+        <v>0.1600036826378639</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2672544097838581</v>
+        <v>0.2507615094025863</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06960194198380509</v>
+        <v>-0.0742157423819666</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.09365381410225404</v>
+        <v>-0.06272146575269288</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01844589474933678</v>
+        <v>-0.01946159371676992</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04428263436760183</v>
+        <v>-0.04682988404664079</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2059736006216251</v>
+        <v>0.2060083814052398</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0.04481461253681185</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1367187974345919</v>
+        <v>-0.1180637126000554</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.00319031772590761</v>
+        <v>0.00323135719180212</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01869687499886785</v>
+        <v>-0.004003420854947537</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01571172317230574</v>
+        <v>-0.01773117161335924</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.034753783185413</v>
+        <v>0.03473555427032005</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03448025951692668</v>
+        <v>-0.03397063994347815</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01094468200686183</v>
+        <v>-0.01095421805216723</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.00714708096038652</v>
+        <v>-0.01703532580380018</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.001991342098054405</v>
+        <v>0.02475251472445716</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.0822265384303229</v>
+        <v>0.08241059865140365</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03668880282065068</v>
+        <v>0.03813329109922958</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008549856544281864</v>
+        <v>0.008503285688379103</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01920326083335477</v>
+        <v>0.01935533915928955</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04507756959205866</v>
+        <v>0.04496975905270451</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.0443653844641656</v>
+        <v>0.04170589570949557</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03056273252904584</v>
+        <v>0.04051432393793242</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08184425312448762</v>
+        <v>0.07648953218758381</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03067675236856549</v>
+        <v>-0.03045383247100908</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.003950205800136053</v>
+        <v>-0.003929186784302985</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05245864705801195</v>
+        <v>0.05274402532707301</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03928684245551106</v>
+        <v>0.03932080026702889</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.02576844085693675</v>
+        <v>0.005510982861347546</v>
       </c>
     </row>
     <row r="6">
@@ -2044,28 +2044,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04345253582373698</v>
+        <v>0.04344309384720302</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07486758233001567</v>
+        <v>-0.07487212070987559</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.06888372990124181</v>
+        <v>-0.05739992670256899</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02307722640475873</v>
+        <v>0.02312375297689684</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1115065135515318</v>
+        <v>0.1119865071413886</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02878913902575575</v>
+        <v>0.02875466938355076</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02132634247483933</v>
+        <v>-0.01762543413900142</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04369284823056874</v>
+        <v>0.04362132086580517</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0.01408128749632898</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.06101202974392628</v>
+        <v>-0.07040841729180636</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09022484116648233</v>
+        <v>0.09473173631281639</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01533640104992007</v>
+        <v>-0.01425782587185154</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03749289115756893</v>
+        <v>0.03746565053886086</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05029861143010428</v>
+        <v>-0.05006929967698492</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03948868182210918</v>
+        <v>0.01685066495061127</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06231769208254812</v>
+        <v>0.0628260394151039</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.03394623483520987</v>
+        <v>-0.01287323641926952</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.06709589302648888</v>
+        <v>-0.07065816083776022</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.005914080239951547</v>
+        <v>-0.007429002468095969</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01098032244646885</v>
+        <v>0.01117005042157704</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01859366018351916</v>
+        <v>-0.01871268022507755</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03515482255718005</v>
+        <v>-0.02492529546418742</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.01205205817117616</v>
+        <v>0.0004313730364355894</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.0267729046586066</v>
+        <v>-0.02662840480338313</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1469674148613628</v>
+        <v>-0.1514000709614565</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01493421424753616</v>
+        <v>0.01489350832691705</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08517461162432904</v>
+        <v>-0.09355378799316649</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02252212213655858</v>
+        <v>0.0225256836887997</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03517510040018101</v>
+        <v>-0.03513719007962413</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.0306187962476987</v>
+        <v>0.03062074297279649</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.009359355425964</v>
+        <v>-0.02773633734745917</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01891913156174896</v>
+        <v>-0.01892100260440033</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.049436953899895</v>
+        <v>-0.06133112211940139</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05825666305309452</v>
+        <v>0.05830427858099285</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07954679718818491</v>
+        <v>-0.07859822819289586</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03156115520688685</v>
+        <v>-0.03155103790539338</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02908303237500931</v>
+        <v>-0.02175794403532316</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.008329056081903818</v>
+        <v>0.008634592050515089</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1035439422216831</v>
+        <v>-0.1074742323474593</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.0401792605380934</v>
+        <v>-0.04011213037755468</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07257937901139344</v>
+        <v>-0.07256033881386503</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.0437847286366464</v>
+        <v>0.06114004260572359</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0838335288615919</v>
+        <v>0.1031673862071112</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08927629008222493</v>
+        <v>-0.08615698976545749</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03495649521276889</v>
+        <v>-0.0342152042790731</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.04237862512051849</v>
+        <v>-0.04055603183239676</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.07945978034455448</v>
+        <v>0.0789771067612639</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.08364231794071419</v>
+        <v>0.0841668575969825</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.004280811429914211</v>
+        <v>0.01806208005000176</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.07009750317718355</v>
+        <v>0.01772051533395458</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1308985363887376</v>
+        <v>0.1371168483904222</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.04059993149316699</v>
+        <v>-0.02471838657143</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.06464452556788658</v>
+        <v>-0.06478514734454643</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01740249472517297</v>
+        <v>0.01726485962737789</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_me_ind/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-10-08</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>69275208.60878387</v>
+        <v>18075424.44332359</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7359.605883870274</v>
+        <v>5556.892523583956</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.927520860878387</v>
+        <v>0.8075424443323587</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2761825681076635</v>
+        <v>0.09522624758812226</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.927520860878387</v>
+        <v>1.807542444332359</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>132.5283336252121</v>
+        <v>113.7594501178399</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.4234118907861719</v>
+        <v>0.4160717309327691</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.232873654013217</v>
+        <v>0.2143643268496776</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9794222022626694</v>
+        <v>0.3855273159394799</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1636922851084789</v>
+        <v>0.1550695850115847</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.393355996658182</v>
+        <v>0.5329433464167432</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2178050998088338</v>
+        <v>0.2170811035337984</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02343572250189203</v>
+        <v>0.022151119624782</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.174402049485087</v>
+        <v>0.005782655521810245</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.102820475778709</v>
+        <v>0.0008863877541356313</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2111939341669929</v>
+        <v>0.05724168735450525</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4255720106798229</v>
+        <v>0.4485606322039957</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.240522827588527</v>
+        <v>0.4369630573501923</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.5033413103061697</v>
+        <v>0.1201336355643617</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5752545670093641</v>
+        <v>0.5753962232769607</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2625688207072752</v>
+        <v>0.2333579994749158</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2038540411549403</v>
+        <v>0.05560227215938458</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4554737246943359</v>
+        <v>0.4593326465137942</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9606978695064294</v>
+        <v>0.3935561923807614</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.506285351860959</v>
+        <v>0.5660874367025716</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.217863871985986</v>
+        <v>0.4804663894926842</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03436096729415219</v>
+        <v>0.02913394352872676</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2064661979200169</v>
+        <v>0.2066259261326343</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,119 +1154,119 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.9554459999999979</v>
+        <v>0.1005580000000007</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.7833732082589765</v>
+        <v>-0.1633428558062198</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.477933820119619</v>
+        <v>1.232707655334756</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>6.044945150177945</v>
+        <v>-6.649109823496508</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.156042150997778</v>
+        <v>-0.0784992703701215</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.0137412672060071</v>
+        <v>0.1757434048211854</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.580546725723143</v>
+        <v>-0.3607520804473733</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.360584824538321</v>
+        <v>-0.01033137803665242</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07852730439864536</v>
+        <v>0.2554170179408668</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1757124455867206</v>
+        <v>0.3823609195980234</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3608811647581712</v>
+        <v>1.6045322483121</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.01044731754874058</v>
+        <v>2.184189456443365</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2555867500001928</v>
+        <v>-0.07101790763430693</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3825494957883834</v>
+        <v>0.2316181774371748</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.605037259941543</v>
+        <v>-0.3755015860354519</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.18481302088263</v>
+        <v>0.03170124278444948</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.07101160275553356</v>
+        <v>0.3650653545037982</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.231630843534265</v>
+        <v>-0.07466105415313036</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.375356396202483</v>
+        <v>1.514622841501412</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.03183147327606684</v>
+        <v>0.6043294979066224</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3650715678187341</v>
+        <v>0.1482330921135747</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07465448084793611</v>
+        <v>-0.3255306083687771</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.514539092802319</v>
+        <v>0.6673293383925828</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6042028596796424</v>
+        <v>-1.73039575846105</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1274,61 +1274,41 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1484274543593994</v>
+        <v>-0.05640310587651581</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3254053518943449</v>
+        <v>-0.1880621982389016</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6678824442099208</v>
+        <v>-0.1360525140429311</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.729473658497802</v>
+        <v>-0.6374880334104162</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.05627889842548772</v>
+        <v>0.03327142423509686</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1879518526650552</v>
+        <v>0.1851152205953554</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1354596536649402</v>
+        <v>0.5365597913620306</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.6368453856414227</v>
+        <v>0.9146314324208407</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4807692307692308</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.03331477275422322</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.1851668263673923</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0.5370925200657047</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.9152616411622262</v>
-      </c>
-      <c r="F10" s="13" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.04519900000000021</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01787702358920873</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02471729758095154</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.06830559940234537</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.005229731266630511</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.06254809575859599</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02551974480255237</v>
+        <v>0.06967900000000005</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2361729057170436</v>
+        <v>0.059612276206227</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.357378323690394</v>
+        <v>-0.02901508233747541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.01568491280250217</v>
+        <v>-0.08406644629360738</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.133934096193062</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1842494712650418</v>
+        <v>0.06015447830339715</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.2075157513139803</v>
+        <v>-0.03777384352226532</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2079509860714526</v>
+        <v>0.01411153078649585</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.0417627958076463</v>
+        <v>0.01521357014016766</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0</v>
+        <v>-0.01336376104673342</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01979349242606276</v>
+        <v>-0.0005045302411783581</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.004997069887591854</v>
+        <v>-0.0287890238494114</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1197899801650353</v>
+        <v>-0.01131512012884217</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05858944585076897</v>
+        <v>0.03672093208842053</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.0297666183163644</v>
+        <v>-0.02417703590521247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.08406308882492131</v>
+        <v>0.001221694694650388</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0</v>
+        <v>0.03065873287873577</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.06015674283174999</v>
+        <v>0.009578274974081369</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.03778218106193698</v>
+        <v>0.01506683488569971</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01412481655711506</v>
+        <v>-0.005440671044068202</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01522349368366216</v>
+        <v>0.07384382590988725</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01337921450681401</v>
+        <v>0.03216146560876076</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0005320595226910863</v>
+        <v>0.03293984500687652</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.0287987681853562</v>
+        <v>0.005089302311108046</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01131708326811054</v>
+        <v>0.05569967182769497</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03672206263731503</v>
+        <v>-0.01483056406615391</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02417342553357116</v>
+        <v>-0.002626604614144545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.001221122222648363</v>
+        <v>0.03607838517122208</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03067027106238407</v>
+        <v>-0.05926004540854413</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009567739330051506</v>
+        <v>0.02533999804990139</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01507875523490676</v>
+        <v>-0.02440646050130069</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.005441805636724584</v>
+        <v>0.07585265766252003</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.07386646474247982</v>
+        <v>-0.04696768435224219</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03220649239421092</v>
+        <v>-0.04149866277809022</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03295954061228601</v>
+        <v>-0.03391151742380349</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005088450461457672</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0557391322100691</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01482572819807237</v>
+        <v>-0.02789331052657484</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.002627412644663485</v>
+        <v>0.03234376895637081</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03609099256584747</v>
+        <v>-0.02987537834593079</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05926563052477252</v>
+        <v>0.2945084901746839</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.0253591608306889</v>
+        <v>0.04914580550648506</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02441977245463778</v>
+        <v>-0.02339165900912143</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07586284766538154</v>
+        <v>-0.01834258369181618</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04697427286178646</v>
+        <v>0.009498616807016136</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04150249098614511</v>
+        <v>-0.03281996130481524</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.0339088575096278</v>
+        <v>0.02141497320557573</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0</v>
+        <v>0.02188884496458554</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0</v>
+        <v>0.00934616268759636</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02789917417966115</v>
+        <v>-0.02826169002719991</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.0323440021268786</v>
+        <v>0.08117598845011353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02987549834425918</v>
+        <v>0.04460996474607537</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2945114163041314</v>
+        <v>-0.08586930614171295</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.0491441149047751</v>
+        <v>-0.07844031312043143</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02339651336025994</v>
+        <v>0.006775597993854188</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01833705608271641</v>
+        <v>0.03205120586999599</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009498949666450152</v>
+        <v>0.128322051819775</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03283631580195201</v>
+        <v>0.1848804623977638</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02143336440888755</v>
+        <v>-0.04844108856538187</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02189229003114956</v>
+        <v>-0.07123126039610062</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009347744210417508</v>
+        <v>-0.02814894905086651</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02828064846554923</v>
+        <v>0.05080853478619685</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08119384139537589</v>
+        <v>0.04072508685784237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.0446181029869881</v>
+        <v>0.02405409122905455</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08589811245421153</v>
+        <v>-0.08892182719084885</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07845301603871235</v>
+        <v>-0.03567362999304491</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.006788078040668388</v>
+        <v>0.003104359352676944</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03207478691469778</v>
+        <v>0.02941568473931011</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1283950752612617</v>
+        <v>-0.02298516232265724</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.185002864165839</v>
+        <v>0.05628057806621523</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.04842882336747911</v>
+        <v>0.03494644979918315</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07125095250825797</v>
+        <v>-0.07436312518754007</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02813849769823817</v>
+        <v>-0.001145166604122894</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05079440486753906</v>
+        <v>0.001899628364255834</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.04074018783487454</v>
+        <v>0.0265531750083623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02405187967247069</v>
+        <v>-0.04643696847780809</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08893335263272439</v>
+        <v>0.01331870595675966</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03565582582023019</v>
+        <v>-0.04968934912992895</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.003148535494480242</v>
+        <v>0.004572532062196766</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02946675178233726</v>
+        <v>0.01600445194698308</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02293367964539028</v>
+        <v>0.09476231197034157</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05625236656452492</v>
+        <v>0.00706292673822273</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03494330451265037</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07434255692166258</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001142367316066539</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.00188970811695377</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02654933518711711</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.04643331847194276</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.01331951378378049</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>-0.04969245260824828</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.004584058425140647</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.01600397908458073</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.09478871887767415</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.007068428693084217</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.01842302582723909</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01354014655508384</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03905146802687398</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.114228123583185</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05301254954620394</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.01807968525303372</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.04397591613464469</v>
+        <v>-0.1064058867841458</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1875533542419348</v>
+        <v>-0.01848409438815224</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4381238533848337</v>
+        <v>-0.04608454979394894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1449884808776242</v>
+        <v>0.2060043626146659</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.01168937799534742</v>
+        <v>0.04481461253681185</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.02325502154919745</v>
+        <v>-0.1180656069521554</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.01416353362077638</v>
+        <v>0.00324005865618715</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.02687217179248036</v>
+        <v>-0.004017252476175237</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1600036826378639</v>
+        <v>-0.01774330615346409</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08807385286485769</v>
+        <v>0.03475047027059008</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2507615094025863</v>
+        <v>-0.03394386581364184</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.0742157423819666</v>
+        <v>-0.01094441834655202</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06272146575269288</v>
+        <v>-0.01703339567069007</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01946159371676992</v>
+        <v>0.02475149837058854</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04682988404664079</v>
+        <v>0.0824066688581897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2060083814052398</v>
+        <v>0.0381338884034832</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04481461253681185</v>
+        <v>0.008491829475081536</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1180637126000554</v>
+        <v>0.01936576517860367</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.00323135719180212</v>
+        <v>0.04495707536725857</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.004003420854947537</v>
+        <v>0.04170708321084349</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01773117161335924</v>
+        <v>0.04049224956131003</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.03473555427032005</v>
+        <v>0.07644263198275758</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03397063994347815</v>
+        <v>-0.03047262901091918</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01095421805216723</v>
+        <v>-0.003928716447647917</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01703532580380018</v>
+        <v>0.05270522257957344</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02475251472445716</v>
+        <v>0.03931556976658457</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08241059865140365</v>
+        <v>0.005511725184248251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03813329109922958</v>
+        <v>0.04343013342052693</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008503285688379103</v>
+        <v>-0.07486661398929462</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01935533915928955</v>
+        <v>-0.05741952269053596</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04496975905270451</v>
+        <v>0.02313731101248595</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04170589570949557</v>
+        <v>0.1119757108790325</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04051432393793242</v>
+        <v>0.02876152968763135</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07648953218758381</v>
+        <v>-0.01762160382072175</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03045383247100908</v>
+        <v>0.04361850128861033</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.003929186784302985</v>
+        <v>0.01408128749632875</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05274402532707301</v>
+        <v>0.09307593245600421</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03932080026702889</v>
+        <v>-0.0704029779145281</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.005510982861347546</v>
+        <v>0.09473142356706354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04344309384720302</v>
+        <v>-0.0142576941788144</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07487212070987559</v>
+        <v>0.0374631673684318</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.05739992670256899</v>
+        <v>-0.0500678471850623</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02312375297689684</v>
+        <v>0.01685561972899707</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1119865071413886</v>
+        <v>0.06282079664891227</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02875466938355076</v>
+        <v>-0.01287357313528092</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01762543413900142</v>
+        <v>-0.07064230339349742</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04362132086580517</v>
+        <v>-0.007446997687642121</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01408128749632898</v>
+        <v>0.01116529852357373</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09307593245600398</v>
+        <v>-0.01871430347420378</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.07040841729180636</v>
+        <v>-0.02490733377575827</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09473173631281639</v>
+        <v>0.0004143944630050633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01425782587185154</v>
+        <v>-0.02663652957267337</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03746565053886086</v>
+        <v>-0.1513754035937181</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05006929967698492</v>
+        <v>0.01490670646268222</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01685066495061127</v>
+        <v>-0.09356540556523973</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0628260394151039</v>
+        <v>0.0225007215286106</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01287323641926952</v>
+        <v>-0.03520130164710666</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.07065816083776022</v>
+        <v>0.03050689294259512</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.007429002468095969</v>
+        <v>-0.02774996957748466</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01117005042157704</v>
+        <v>-0.01890021616376636</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01871268022507755</v>
+        <v>-0.06134194608841659</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02492529546418742</v>
+        <v>0.05831849649638166</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0004313730364355894</v>
+        <v>-0.07861143816835758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02662840480338313</v>
+        <v>-0.03154942375983283</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1514000709614565</v>
+        <v>-0.0217435056014772</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01489350832691705</v>
+        <v>0.008616995140801498</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09355378799316649</v>
+        <v>-0.1075152278211957</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.0225256836887997</v>
+        <v>-0.04016151833874659</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03513719007962413</v>
+        <v>-0.07261126851203081</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03062074297279649</v>
+        <v>0.06116706611197698</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02773633734745917</v>
+        <v>0.1031707673473579</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01892100260440033</v>
+        <v>-0.08617731709820176</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.06133112211940139</v>
+        <v>-0.03421792296099924</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05830427858099285</v>
+        <v>-0.04054640300214163</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07859822819289586</v>
+        <v>0.07898133593206325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03155103790539338</v>
+        <v>0.08416280611941573</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02175794403532316</v>
+        <v>0.01806125612187426</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.008634592050515089</v>
+        <v>0.01772379537505109</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1074742323474593</v>
+        <v>0.1371031393844286</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04011213037755468</v>
+        <v>-0.02471792242645243</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07256033881386503</v>
+        <v>-0.06480874434987394</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.06114004260572359</v>
+        <v>0.01725935767251618</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.1031673862071112</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08615698976545749</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0342152042790731</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.04055603183239676</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.0789771067612639</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.0841668575969825</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.01806208005000176</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.01772051533395458</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.1371168483904222</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.02471838657143</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-0.06478514734454643</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.01726485962737789</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
